--- a/structure.xlsx
+++ b/structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psypp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36D3CC-C8EE-4721-9292-5683A9D05E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237E253-E99C-4086-A088-4929C64B3FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>层厚（nm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>波导厚度（nm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波长（nm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为有源区（是为1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,63 +399,97 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
       <c r="B2">
-        <v>3.38</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>3.48</v>
-      </c>
       <c r="F2">
-        <v>3.38</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B3">
-        <v>3.48</v>
+        <v>2.5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>3.38</v>
+        <v>2.6</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
       <c r="B5">
-        <v>3.38</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>

--- a/structure.xlsx
+++ b/structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psypp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237E253-E99C-4086-A088-4929C64B3FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA4824-3273-4731-8732-56AF643CDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="H2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I2">
         <v>450</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>2.5</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.6</v>
@@ -465,31 +465,45 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
